--- a/Hindi-job/All-Quiz/indexme box ke liye.xlsx
+++ b/Hindi-job/All-Quiz/indexme box ke liye.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="5">
   <si>
     <t>&lt;tr&gt;&lt;td&gt;&lt;br&gt;&lt;center&gt;&lt;a href="All-test/test-</t>
   </si>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:F52"/>
+  <dimension ref="B4:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F52"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F19" sqref="B4:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -382,13 +382,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -399,13 +399,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -416,13 +416,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
@@ -450,13 +450,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
@@ -467,13 +467,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -518,13 +518,13 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F13" t="s">
         <v>2</v>
@@ -552,13 +552,13 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
@@ -569,13 +569,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -586,13 +586,13 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
@@ -603,13 +603,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
@@ -620,13 +620,13 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
@@ -654,13 +654,13 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
@@ -688,13 +688,13 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -705,13 +705,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F23" t="s">
         <v>2</v>
@@ -722,13 +722,13 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -739,13 +739,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="F25" t="s">
         <v>2</v>
@@ -756,13 +756,13 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F27" t="s">
         <v>2</v>
@@ -790,13 +790,13 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="F28" t="s">
         <v>4</v>
@@ -807,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="F29" t="s">
         <v>2</v>
@@ -824,13 +824,13 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
@@ -841,13 +841,13 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F31" t="s">
         <v>2</v>
@@ -858,13 +858,13 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
@@ -875,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="F33" t="s">
         <v>2</v>
@@ -892,13 +892,13 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F35" t="s">
         <v>2</v>
@@ -926,13 +926,13 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="F37" t="s">
         <v>2</v>
@@ -960,13 +960,13 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F38" t="s">
         <v>4</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="F39" t="s">
         <v>2</v>
@@ -994,13 +994,13 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
@@ -1011,13 +1011,13 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F41" t="s">
         <v>2</v>
@@ -1028,13 +1028,13 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
@@ -1045,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F43" t="s">
         <v>2</v>
@@ -1062,13 +1062,13 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="F45" t="s">
         <v>2</v>
@@ -1096,13 +1096,13 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="F47" t="s">
         <v>2</v>
@@ -1130,13 +1130,13 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F48" t="s">
         <v>4</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F49" t="s">
         <v>2</v>
@@ -1164,13 +1164,13 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F50" t="s">
         <v>4</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F51" t="s">
         <v>2</v>
@@ -1198,20 +1198,292 @@
         <v>3</v>
       </c>
       <c r="C52">
+        <v>260</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>260</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>259</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>259</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>258</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>258</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>257</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>257</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>256</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>256</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>255</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>255</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>254</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>254</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>253</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>253</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>252</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>252</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>251</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>251</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>250</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>250</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>249</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>249</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>248</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>248</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>247</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>247</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>246</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>246</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>245</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>245</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68">
         <v>244</v>
       </c>
-      <c r="D52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52">
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68">
         <v>244</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F68" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="E4:E52">
+  <sortState ref="E4:E68">
     <sortCondition descending="1" ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hindi-job/All-Quiz/indexme box ke liye.xlsx
+++ b/Hindi-job/All-Quiz/indexme box ke liye.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="5">
   <si>
     <t>&lt;tr&gt;&lt;td&gt;&lt;br&gt;&lt;center&gt;&lt;a href="All-test/test-</t>
   </si>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:F68"/>
+  <dimension ref="B3:F502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F19" sqref="B4:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -377,18 +377,35 @@
     <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>308</v>
+        <v>499</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>308</v>
+        <v>499</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -399,13 +416,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>307</v>
+        <v>498</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>307</v>
+        <v>498</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -416,13 +433,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>306</v>
+        <v>497</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>306</v>
+        <v>497</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
@@ -433,13 +450,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>305</v>
+        <v>496</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>305</v>
+        <v>496</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
@@ -450,13 +467,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>304</v>
+        <v>495</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>304</v>
+        <v>495</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
@@ -467,13 +484,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>303</v>
+        <v>494</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>303</v>
+        <v>494</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
@@ -484,13 +501,13 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>302</v>
+        <v>493</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>302</v>
+        <v>493</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -501,13 +518,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>301</v>
+        <v>492</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>301</v>
+        <v>492</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -518,13 +535,13 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>300</v>
+        <v>491</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>300</v>
+        <v>491</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -535,13 +552,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>299</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>299</v>
+        <v>490</v>
       </c>
       <c r="F13" t="s">
         <v>2</v>
@@ -552,13 +569,13 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>298</v>
+        <v>489</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>298</v>
+        <v>489</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
@@ -569,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>297</v>
+        <v>488</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>297</v>
+        <v>488</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -586,13 +603,13 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>296</v>
+        <v>487</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>296</v>
+        <v>487</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
@@ -603,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>295</v>
+        <v>486</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>295</v>
+        <v>486</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
@@ -620,13 +637,13 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>294</v>
+        <v>485</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>294</v>
+        <v>485</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
@@ -637,13 +654,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>293</v>
+        <v>484</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>293</v>
+        <v>484</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
@@ -654,13 +671,13 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>292</v>
+        <v>483</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>292</v>
+        <v>483</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
@@ -671,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>291</v>
+        <v>482</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>291</v>
+        <v>482</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
@@ -688,13 +705,13 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>290</v>
+        <v>481</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>290</v>
+        <v>481</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -705,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>289</v>
+        <v>480</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>289</v>
+        <v>480</v>
       </c>
       <c r="F23" t="s">
         <v>2</v>
@@ -722,13 +739,13 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>288</v>
+        <v>479</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>288</v>
+        <v>479</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -739,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>287</v>
+        <v>478</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>287</v>
+        <v>478</v>
       </c>
       <c r="F25" t="s">
         <v>2</v>
@@ -756,13 +773,13 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
@@ -773,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>285</v>
+        <v>476</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>285</v>
+        <v>476</v>
       </c>
       <c r="F27" t="s">
         <v>2</v>
@@ -790,13 +807,13 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>284</v>
+        <v>475</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>284</v>
+        <v>475</v>
       </c>
       <c r="F28" t="s">
         <v>4</v>
@@ -807,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>283</v>
+        <v>474</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>283</v>
+        <v>474</v>
       </c>
       <c r="F29" t="s">
         <v>2</v>
@@ -824,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>282</v>
+        <v>473</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>282</v>
+        <v>473</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
@@ -841,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>281</v>
+        <v>472</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>281</v>
+        <v>472</v>
       </c>
       <c r="F31" t="s">
         <v>2</v>
@@ -858,13 +875,13 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>280</v>
+        <v>471</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>280</v>
+        <v>471</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
@@ -875,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>279</v>
+        <v>470</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>279</v>
+        <v>470</v>
       </c>
       <c r="F33" t="s">
         <v>2</v>
@@ -892,13 +909,13 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>278</v>
+        <v>469</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>278</v>
+        <v>469</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>
@@ -909,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>277</v>
+        <v>468</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>277</v>
+        <v>468</v>
       </c>
       <c r="F35" t="s">
         <v>2</v>
@@ -926,13 +943,13 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>276</v>
+        <v>467</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>276</v>
+        <v>467</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
@@ -943,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>275</v>
+        <v>466</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>275</v>
+        <v>466</v>
       </c>
       <c r="F37" t="s">
         <v>2</v>
@@ -960,13 +977,13 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>274</v>
+        <v>465</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>274</v>
+        <v>465</v>
       </c>
       <c r="F38" t="s">
         <v>4</v>
@@ -977,13 +994,13 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>273</v>
+        <v>464</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>273</v>
+        <v>464</v>
       </c>
       <c r="F39" t="s">
         <v>2</v>
@@ -994,13 +1011,13 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>272</v>
+        <v>463</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>272</v>
+        <v>463</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
@@ -1011,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>271</v>
+        <v>462</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>271</v>
+        <v>462</v>
       </c>
       <c r="F41" t="s">
         <v>2</v>
@@ -1028,13 +1045,13 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>270</v>
+        <v>461</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>270</v>
+        <v>461</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
@@ -1045,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>269</v>
+        <v>460</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>269</v>
+        <v>460</v>
       </c>
       <c r="F43" t="s">
         <v>2</v>
@@ -1062,13 +1079,13 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>268</v>
+        <v>459</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>268</v>
+        <v>459</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
@@ -1079,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>267</v>
+        <v>458</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>267</v>
+        <v>458</v>
       </c>
       <c r="F45" t="s">
         <v>2</v>
@@ -1096,13 +1113,13 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>266</v>
+        <v>457</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>266</v>
+        <v>457</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
@@ -1113,13 +1130,13 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>265</v>
+        <v>456</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>265</v>
+        <v>456</v>
       </c>
       <c r="F47" t="s">
         <v>2</v>
@@ -1130,13 +1147,13 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>264</v>
+        <v>455</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>264</v>
+        <v>455</v>
       </c>
       <c r="F48" t="s">
         <v>4</v>
@@ -1147,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>263</v>
+        <v>454</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>263</v>
+        <v>454</v>
       </c>
       <c r="F49" t="s">
         <v>2</v>
@@ -1164,13 +1181,13 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>262</v>
+        <v>453</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>262</v>
+        <v>453</v>
       </c>
       <c r="F50" t="s">
         <v>4</v>
@@ -1181,13 +1198,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>261</v>
+        <v>452</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>261</v>
+        <v>452</v>
       </c>
       <c r="F51" t="s">
         <v>2</v>
@@ -1198,13 +1215,13 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>260</v>
+        <v>451</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>260</v>
+        <v>451</v>
       </c>
       <c r="F52" t="s">
         <v>4</v>
@@ -1215,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>259</v>
+        <v>450</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>259</v>
+        <v>450</v>
       </c>
       <c r="F53" t="s">
         <v>2</v>
@@ -1232,13 +1249,13 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="F54" t="s">
         <v>4</v>
@@ -1249,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>257</v>
+        <v>448</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>257</v>
+        <v>448</v>
       </c>
       <c r="F55" t="s">
         <v>2</v>
@@ -1266,13 +1283,13 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>256</v>
+        <v>447</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>256</v>
+        <v>447</v>
       </c>
       <c r="F56" t="s">
         <v>4</v>
@@ -1283,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>255</v>
+        <v>446</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>255</v>
+        <v>446</v>
       </c>
       <c r="F57" t="s">
         <v>2</v>
@@ -1300,13 +1317,13 @@
         <v>3</v>
       </c>
       <c r="C58">
-        <v>254</v>
+        <v>445</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>254</v>
+        <v>445</v>
       </c>
       <c r="F58" t="s">
         <v>4</v>
@@ -1317,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>253</v>
+        <v>444</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>253</v>
+        <v>444</v>
       </c>
       <c r="F59" t="s">
         <v>2</v>
@@ -1334,13 +1351,13 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>252</v>
+        <v>443</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>252</v>
+        <v>443</v>
       </c>
       <c r="F60" t="s">
         <v>4</v>
@@ -1351,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>251</v>
+        <v>442</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>251</v>
+        <v>442</v>
       </c>
       <c r="F61" t="s">
         <v>2</v>
@@ -1368,13 +1385,13 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>250</v>
+        <v>441</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>250</v>
+        <v>441</v>
       </c>
       <c r="F62" t="s">
         <v>4</v>
@@ -1385,13 +1402,13 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>249</v>
+        <v>440</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
       <c r="E63">
-        <v>249</v>
+        <v>440</v>
       </c>
       <c r="F63" t="s">
         <v>2</v>
@@ -1402,13 +1419,13 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>248</v>
+        <v>439</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>248</v>
+        <v>439</v>
       </c>
       <c r="F64" t="s">
         <v>4</v>
@@ -1419,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>247</v>
+        <v>438</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>247</v>
+        <v>438</v>
       </c>
       <c r="F65" t="s">
         <v>2</v>
@@ -1436,13 +1453,13 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>246</v>
+        <v>437</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>246</v>
+        <v>437</v>
       </c>
       <c r="F66" t="s">
         <v>4</v>
@@ -1453,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>245</v>
+        <v>436</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>245</v>
+        <v>436</v>
       </c>
       <c r="F67" t="s">
         <v>2</v>
@@ -1470,20 +1487,7398 @@
         <v>3</v>
       </c>
       <c r="C68">
+        <v>435</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>435</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>434</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>434</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>433</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>433</v>
+      </c>
+      <c r="F70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>432</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>432</v>
+      </c>
+      <c r="F71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>431</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>431</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>430</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>430</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>429</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>429</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>428</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>428</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>427</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>427</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>426</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>426</v>
+      </c>
+      <c r="F77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>425</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>425</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>424</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>424</v>
+      </c>
+      <c r="F79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>423</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>423</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>422</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>422</v>
+      </c>
+      <c r="F81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>421</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>421</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>420</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>420</v>
+      </c>
+      <c r="F83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>419</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>419</v>
+      </c>
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>418</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>418</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>417</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>417</v>
+      </c>
+      <c r="F86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>416</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>416</v>
+      </c>
+      <c r="F87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>415</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>415</v>
+      </c>
+      <c r="F88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>414</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>414</v>
+      </c>
+      <c r="F89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>413</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>413</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>412</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>412</v>
+      </c>
+      <c r="F91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>411</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>411</v>
+      </c>
+      <c r="F92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>410</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>410</v>
+      </c>
+      <c r="F93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>409</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>409</v>
+      </c>
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>408</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>408</v>
+      </c>
+      <c r="F95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>407</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>407</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>406</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>406</v>
+      </c>
+      <c r="F97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>405</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>405</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>404</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>404</v>
+      </c>
+      <c r="F99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>403</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>403</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>402</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>402</v>
+      </c>
+      <c r="F101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>401</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>401</v>
+      </c>
+      <c r="F102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>400</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>400</v>
+      </c>
+      <c r="F103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>399</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>399</v>
+      </c>
+      <c r="F104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>398</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>398</v>
+      </c>
+      <c r="F105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>397</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>397</v>
+      </c>
+      <c r="F106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>396</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>396</v>
+      </c>
+      <c r="F107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>395</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>395</v>
+      </c>
+      <c r="F108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>394</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>394</v>
+      </c>
+      <c r="F109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>393</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>393</v>
+      </c>
+      <c r="F110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>392</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>392</v>
+      </c>
+      <c r="F111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>391</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>391</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>390</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>390</v>
+      </c>
+      <c r="F113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>389</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>389</v>
+      </c>
+      <c r="F114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>388</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>388</v>
+      </c>
+      <c r="F115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>387</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>387</v>
+      </c>
+      <c r="F116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>386</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>386</v>
+      </c>
+      <c r="F117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>385</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>385</v>
+      </c>
+      <c r="F118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>384</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>384</v>
+      </c>
+      <c r="F119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>383</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>383</v>
+      </c>
+      <c r="F120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>382</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>382</v>
+      </c>
+      <c r="F121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>381</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>381</v>
+      </c>
+      <c r="F122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>380</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>380</v>
+      </c>
+      <c r="F123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>379</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>379</v>
+      </c>
+      <c r="F124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>378</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>378</v>
+      </c>
+      <c r="F125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>377</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>377</v>
+      </c>
+      <c r="F126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>376</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>376</v>
+      </c>
+      <c r="F127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>375</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>375</v>
+      </c>
+      <c r="F128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>374</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>374</v>
+      </c>
+      <c r="F129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>373</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>373</v>
+      </c>
+      <c r="F130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>372</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>372</v>
+      </c>
+      <c r="F131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>371</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>371</v>
+      </c>
+      <c r="F132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>370</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>370</v>
+      </c>
+      <c r="F133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>369</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>369</v>
+      </c>
+      <c r="F134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>368</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>368</v>
+      </c>
+      <c r="F135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>367</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>367</v>
+      </c>
+      <c r="F136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>366</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>366</v>
+      </c>
+      <c r="F137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>365</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>365</v>
+      </c>
+      <c r="F138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>364</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>364</v>
+      </c>
+      <c r="F139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>363</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>363</v>
+      </c>
+      <c r="F140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>362</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>362</v>
+      </c>
+      <c r="F141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>361</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>361</v>
+      </c>
+      <c r="F142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>360</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>360</v>
+      </c>
+      <c r="F143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>359</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>359</v>
+      </c>
+      <c r="F144" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>358</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>358</v>
+      </c>
+      <c r="F145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>357</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>357</v>
+      </c>
+      <c r="F146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>356</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>356</v>
+      </c>
+      <c r="F147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>355</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>355</v>
+      </c>
+      <c r="F148" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>354</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>354</v>
+      </c>
+      <c r="F149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>353</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>353</v>
+      </c>
+      <c r="F150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>352</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>352</v>
+      </c>
+      <c r="F151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>351</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>351</v>
+      </c>
+      <c r="F152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>350</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>350</v>
+      </c>
+      <c r="F153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>349</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>349</v>
+      </c>
+      <c r="F154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>348</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>348</v>
+      </c>
+      <c r="F155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>347</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>347</v>
+      </c>
+      <c r="F156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>346</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>346</v>
+      </c>
+      <c r="F157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>345</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>345</v>
+      </c>
+      <c r="F158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>344</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>344</v>
+      </c>
+      <c r="F159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6">
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>343</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>343</v>
+      </c>
+      <c r="F160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6">
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>342</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>342</v>
+      </c>
+      <c r="F161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>341</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>341</v>
+      </c>
+      <c r="F162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>340</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>340</v>
+      </c>
+      <c r="F163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6">
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>339</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>339</v>
+      </c>
+      <c r="F164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6">
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>338</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>338</v>
+      </c>
+      <c r="F165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6">
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>337</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>337</v>
+      </c>
+      <c r="F166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6">
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>336</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>336</v>
+      </c>
+      <c r="F167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>335</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>335</v>
+      </c>
+      <c r="F168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>334</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>333</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>333</v>
+      </c>
+      <c r="F170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>332</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>332</v>
+      </c>
+      <c r="F171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6">
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>331</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>331</v>
+      </c>
+      <c r="F172" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>330</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>330</v>
+      </c>
+      <c r="F173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>329</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>329</v>
+      </c>
+      <c r="F174" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>328</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>328</v>
+      </c>
+      <c r="F175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>327</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>327</v>
+      </c>
+      <c r="F176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>326</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>326</v>
+      </c>
+      <c r="F177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>325</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>325</v>
+      </c>
+      <c r="F178" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>324</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>324</v>
+      </c>
+      <c r="F179" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>323</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>323</v>
+      </c>
+      <c r="F180" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>322</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>322</v>
+      </c>
+      <c r="F181" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>321</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>321</v>
+      </c>
+      <c r="F182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>320</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>320</v>
+      </c>
+      <c r="F183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6">
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>319</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>319</v>
+      </c>
+      <c r="F184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>318</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>318</v>
+      </c>
+      <c r="F185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>317</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>317</v>
+      </c>
+      <c r="F186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6">
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>316</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>316</v>
+      </c>
+      <c r="F187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6">
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>315</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>315</v>
+      </c>
+      <c r="F188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6">
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>314</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>314</v>
+      </c>
+      <c r="F189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6">
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>313</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>313</v>
+      </c>
+      <c r="F190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6">
+      <c r="B191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>312</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>312</v>
+      </c>
+      <c r="F191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6">
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>311</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>311</v>
+      </c>
+      <c r="F192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6">
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>310</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>310</v>
+      </c>
+      <c r="F193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6">
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>309</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>309</v>
+      </c>
+      <c r="F194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6">
+      <c r="B195" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>308</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>308</v>
+      </c>
+      <c r="F195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6">
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>307</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>307</v>
+      </c>
+      <c r="F196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6">
+      <c r="B197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>306</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>306</v>
+      </c>
+      <c r="F197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6">
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>305</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>305</v>
+      </c>
+      <c r="F198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6">
+      <c r="B199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>304</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>304</v>
+      </c>
+      <c r="F199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6">
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <v>303</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>303</v>
+      </c>
+      <c r="F200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6">
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>302</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>302</v>
+      </c>
+      <c r="F201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6">
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>301</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>301</v>
+      </c>
+      <c r="F202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6">
+      <c r="B203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>300</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>300</v>
+      </c>
+      <c r="F203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6">
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>299</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>299</v>
+      </c>
+      <c r="F204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6">
+      <c r="B205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>298</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>298</v>
+      </c>
+      <c r="F205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6">
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>297</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>297</v>
+      </c>
+      <c r="F206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6">
+      <c r="B207" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>296</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>296</v>
+      </c>
+      <c r="F207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6">
+      <c r="B208" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>295</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>295</v>
+      </c>
+      <c r="F208" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6">
+      <c r="B209" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>294</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>294</v>
+      </c>
+      <c r="F209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6">
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210">
+        <v>293</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>293</v>
+      </c>
+      <c r="F210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6">
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>292</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>292</v>
+      </c>
+      <c r="F211" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6">
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>291</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>291</v>
+      </c>
+      <c r="F212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6">
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>290</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>290</v>
+      </c>
+      <c r="F213" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6">
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>289</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1</v>
+      </c>
+      <c r="E214">
+        <v>289</v>
+      </c>
+      <c r="F214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6">
+      <c r="B215" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>288</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>288</v>
+      </c>
+      <c r="F215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6">
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216">
+        <v>287</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>287</v>
+      </c>
+      <c r="F216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6">
+      <c r="B217" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>286</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>286</v>
+      </c>
+      <c r="F217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6">
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218">
+        <v>285</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>285</v>
+      </c>
+      <c r="F218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6">
+      <c r="B219" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>284</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>284</v>
+      </c>
+      <c r="F219" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6">
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>283</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>283</v>
+      </c>
+      <c r="F220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6">
+      <c r="B221" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>282</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>282</v>
+      </c>
+      <c r="F221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222">
+        <v>281</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>281</v>
+      </c>
+      <c r="F222" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6">
+      <c r="B223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>280</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>280</v>
+      </c>
+      <c r="F223" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6">
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>279</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>279</v>
+      </c>
+      <c r="F224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6">
+      <c r="B225" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>278</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>278</v>
+      </c>
+      <c r="F225" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6">
+      <c r="B226" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>277</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>277</v>
+      </c>
+      <c r="F226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6">
+      <c r="B227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>276</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>276</v>
+      </c>
+      <c r="F227" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6">
+      <c r="B228" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>275</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>275</v>
+      </c>
+      <c r="F228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6">
+      <c r="B229" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>274</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>274</v>
+      </c>
+      <c r="F229" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6">
+      <c r="B230" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>273</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>273</v>
+      </c>
+      <c r="F230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
+      <c r="B231" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>272</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>272</v>
+      </c>
+      <c r="F231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6">
+      <c r="B232" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <v>271</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>271</v>
+      </c>
+      <c r="F232" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6">
+      <c r="B233" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>270</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>270</v>
+      </c>
+      <c r="F233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6">
+      <c r="B234" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>269</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>269</v>
+      </c>
+      <c r="F234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6">
+      <c r="B235" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>268</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>268</v>
+      </c>
+      <c r="F235" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6">
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>267</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>267</v>
+      </c>
+      <c r="F236" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6">
+      <c r="B237" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>266</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>266</v>
+      </c>
+      <c r="F237" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6">
+      <c r="B238" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>265</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>265</v>
+      </c>
+      <c r="F238" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6">
+      <c r="B239" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>264</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>264</v>
+      </c>
+      <c r="F239" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6">
+      <c r="B240" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240">
+        <v>263</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>263</v>
+      </c>
+      <c r="F240" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6">
+      <c r="B241" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>262</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>262</v>
+      </c>
+      <c r="F241" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6">
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <v>261</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>261</v>
+      </c>
+      <c r="F242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6">
+      <c r="B243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>260</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>260</v>
+      </c>
+      <c r="F243" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6">
+      <c r="B244" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>259</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>259</v>
+      </c>
+      <c r="F244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6">
+      <c r="B245" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>258</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>258</v>
+      </c>
+      <c r="F245" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246">
+        <v>257</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>257</v>
+      </c>
+      <c r="F246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6">
+      <c r="B247" t="s">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>256</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>256</v>
+      </c>
+      <c r="F247" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6">
+      <c r="B248" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>255</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>255</v>
+      </c>
+      <c r="F248" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6">
+      <c r="B249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>254</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>254</v>
+      </c>
+      <c r="F249" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="B250" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>253</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>253</v>
+      </c>
+      <c r="F250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6">
+      <c r="B251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>252</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>252</v>
+      </c>
+      <c r="F251" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6">
+      <c r="B252" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252">
+        <v>251</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>251</v>
+      </c>
+      <c r="F252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6">
+      <c r="B253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>250</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>250</v>
+      </c>
+      <c r="F253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6">
+      <c r="B254" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>249</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>249</v>
+      </c>
+      <c r="F254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6">
+      <c r="B255" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>248</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>248</v>
+      </c>
+      <c r="F255" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6">
+      <c r="B256" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>247</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>247</v>
+      </c>
+      <c r="F256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6">
+      <c r="B257" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>246</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>246</v>
+      </c>
+      <c r="F257" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6">
+      <c r="B258" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258">
+        <v>245</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>245</v>
+      </c>
+      <c r="F258" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6">
+      <c r="B259" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259">
         <v>244</v>
       </c>
-      <c r="D68" t="s">
-        <v>1</v>
-      </c>
-      <c r="E68">
+      <c r="D259" t="s">
+        <v>1</v>
+      </c>
+      <c r="E259">
         <v>244</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F259" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6">
+      <c r="B260" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260">
+        <v>243</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>243</v>
+      </c>
+      <c r="F260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6">
+      <c r="B261" t="s">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>242</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>242</v>
+      </c>
+      <c r="F261" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6">
+      <c r="B262" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>241</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>241</v>
+      </c>
+      <c r="F262" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6">
+      <c r="B263" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>240</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>240</v>
+      </c>
+      <c r="F263" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6">
+      <c r="B264" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264">
+        <v>239</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>239</v>
+      </c>
+      <c r="F264" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6">
+      <c r="B265" t="s">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>238</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>238</v>
+      </c>
+      <c r="F265" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6">
+      <c r="B266" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266">
+        <v>237</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>237</v>
+      </c>
+      <c r="F266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6">
+      <c r="B267" t="s">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>236</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>236</v>
+      </c>
+      <c r="F267" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6">
+      <c r="B268" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>235</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>235</v>
+      </c>
+      <c r="F268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6">
+      <c r="B269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>234</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>234</v>
+      </c>
+      <c r="F269" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6">
+      <c r="B270" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270">
+        <v>233</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>233</v>
+      </c>
+      <c r="F270" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6">
+      <c r="B271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>232</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1</v>
+      </c>
+      <c r="E271">
+        <v>232</v>
+      </c>
+      <c r="F271" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6">
+      <c r="B272" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272">
+        <v>231</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>231</v>
+      </c>
+      <c r="F272" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6">
+      <c r="B273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>230</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>230</v>
+      </c>
+      <c r="F273" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6">
+      <c r="B274" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>229</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>229</v>
+      </c>
+      <c r="F274" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6">
+      <c r="B275" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>228</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>228</v>
+      </c>
+      <c r="F275" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6">
+      <c r="B276" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>227</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>227</v>
+      </c>
+      <c r="F276" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6">
+      <c r="B277" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>226</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>226</v>
+      </c>
+      <c r="F277" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6">
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>225</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>225</v>
+      </c>
+      <c r="F278" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6">
+      <c r="B279" t="s">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>224</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>224</v>
+      </c>
+      <c r="F279" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6">
+      <c r="B280" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>223</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>223</v>
+      </c>
+      <c r="F280" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6">
+      <c r="B281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>222</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>222</v>
+      </c>
+      <c r="F281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6">
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282">
+        <v>221</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>221</v>
+      </c>
+      <c r="F282" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6">
+      <c r="B283" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>220</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>220</v>
+      </c>
+      <c r="F283" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6">
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>219</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>219</v>
+      </c>
+      <c r="F284" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6">
+      <c r="B285" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>218</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>218</v>
+      </c>
+      <c r="F285" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6">
+      <c r="B286" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>217</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>217</v>
+      </c>
+      <c r="F286" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6">
+      <c r="B287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>216</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>216</v>
+      </c>
+      <c r="F287" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6">
+      <c r="B288" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288">
+        <v>215</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>215</v>
+      </c>
+      <c r="F288" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6">
+      <c r="B289" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>214</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>214</v>
+      </c>
+      <c r="F289" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6">
+      <c r="B290" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290">
+        <v>213</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>213</v>
+      </c>
+      <c r="F290" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6">
+      <c r="B291" t="s">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>212</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>212</v>
+      </c>
+      <c r="F291" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6">
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>211</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>211</v>
+      </c>
+      <c r="F292" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6">
+      <c r="B293" t="s">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>210</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>210</v>
+      </c>
+      <c r="F293" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6">
+      <c r="B294" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294">
+        <v>209</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>209</v>
+      </c>
+      <c r="F294" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6">
+      <c r="B295" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>208</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>208</v>
+      </c>
+      <c r="F295" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6">
+      <c r="B296" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296">
+        <v>207</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1</v>
+      </c>
+      <c r="E296">
+        <v>207</v>
+      </c>
+      <c r="F296" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6">
+      <c r="B297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>206</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>206</v>
+      </c>
+      <c r="F297" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6">
+      <c r="B298" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <v>205</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>205</v>
+      </c>
+      <c r="F298" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6">
+      <c r="B299" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>204</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1</v>
+      </c>
+      <c r="E299">
+        <v>204</v>
+      </c>
+      <c r="F299" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6">
+      <c r="B300" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <v>203</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>203</v>
+      </c>
+      <c r="F300" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6">
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>202</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>202</v>
+      </c>
+      <c r="F301" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6">
+      <c r="B302" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>201</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1</v>
+      </c>
+      <c r="E302">
+        <v>201</v>
+      </c>
+      <c r="F302" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6">
+      <c r="B303" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>200</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1</v>
+      </c>
+      <c r="E303">
+        <v>200</v>
+      </c>
+      <c r="F303" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6">
+      <c r="B304" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304">
+        <v>199</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1</v>
+      </c>
+      <c r="E304">
+        <v>199</v>
+      </c>
+      <c r="F304" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6">
+      <c r="B305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>198</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1</v>
+      </c>
+      <c r="E305">
+        <v>198</v>
+      </c>
+      <c r="F305" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6">
+      <c r="B306" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306">
+        <v>197</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>197</v>
+      </c>
+      <c r="F306" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6">
+      <c r="B307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>196</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>196</v>
+      </c>
+      <c r="F307" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6">
+      <c r="B308" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308">
+        <v>195</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>195</v>
+      </c>
+      <c r="F308" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6">
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>194</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>194</v>
+      </c>
+      <c r="F309" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6">
+      <c r="B310" t="s">
+        <v>3</v>
+      </c>
+      <c r="C310">
+        <v>193</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>193</v>
+      </c>
+      <c r="F310" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6">
+      <c r="B311" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>192</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1</v>
+      </c>
+      <c r="E311">
+        <v>192</v>
+      </c>
+      <c r="F311" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6">
+      <c r="B312" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312">
+        <v>191</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>191</v>
+      </c>
+      <c r="F312" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6">
+      <c r="B313" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>190</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1</v>
+      </c>
+      <c r="E313">
+        <v>190</v>
+      </c>
+      <c r="F313" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6">
+      <c r="B314" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314">
+        <v>189</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1</v>
+      </c>
+      <c r="E314">
+        <v>189</v>
+      </c>
+      <c r="F314" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6">
+      <c r="B315" t="s">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>188</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1</v>
+      </c>
+      <c r="E315">
+        <v>188</v>
+      </c>
+      <c r="F315" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6">
+      <c r="B316" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316">
+        <v>187</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>187</v>
+      </c>
+      <c r="F316" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6">
+      <c r="B317" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>186</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1</v>
+      </c>
+      <c r="E317">
+        <v>186</v>
+      </c>
+      <c r="F317" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6">
+      <c r="B318" t="s">
+        <v>3</v>
+      </c>
+      <c r="C318">
+        <v>185</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1</v>
+      </c>
+      <c r="E318">
+        <v>185</v>
+      </c>
+      <c r="F318" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6">
+      <c r="B319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>184</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1</v>
+      </c>
+      <c r="E319">
+        <v>184</v>
+      </c>
+      <c r="F319" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6">
+      <c r="B320" t="s">
+        <v>3</v>
+      </c>
+      <c r="C320">
+        <v>183</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1</v>
+      </c>
+      <c r="E320">
+        <v>183</v>
+      </c>
+      <c r="F320" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6">
+      <c r="B321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>182</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1</v>
+      </c>
+      <c r="E321">
+        <v>182</v>
+      </c>
+      <c r="F321" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="2:6">
+      <c r="B322" t="s">
+        <v>3</v>
+      </c>
+      <c r="C322">
+        <v>181</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>181</v>
+      </c>
+      <c r="F322" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="2:6">
+      <c r="B323" t="s">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>180</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>180</v>
+      </c>
+      <c r="F323" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="2:6">
+      <c r="B324" t="s">
+        <v>3</v>
+      </c>
+      <c r="C324">
+        <v>179</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1</v>
+      </c>
+      <c r="E324">
+        <v>179</v>
+      </c>
+      <c r="F324" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="2:6">
+      <c r="B325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>178</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1</v>
+      </c>
+      <c r="E325">
+        <v>178</v>
+      </c>
+      <c r="F325" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6">
+      <c r="B326" t="s">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>177</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1</v>
+      </c>
+      <c r="E326">
+        <v>177</v>
+      </c>
+      <c r="F326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6">
+      <c r="B327" t="s">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>176</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>176</v>
+      </c>
+      <c r="F327" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="2:6">
+      <c r="B328" t="s">
+        <v>3</v>
+      </c>
+      <c r="C328">
+        <v>175</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1</v>
+      </c>
+      <c r="E328">
+        <v>175</v>
+      </c>
+      <c r="F328" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6">
+      <c r="B329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>174</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1</v>
+      </c>
+      <c r="E329">
+        <v>174</v>
+      </c>
+      <c r="F329" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6">
+      <c r="B330" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330">
+        <v>173</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>173</v>
+      </c>
+      <c r="F330" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6">
+      <c r="B331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>172</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1</v>
+      </c>
+      <c r="E331">
+        <v>172</v>
+      </c>
+      <c r="F331" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="2:6">
+      <c r="B332" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <v>171</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>171</v>
+      </c>
+      <c r="F332" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="2:6">
+      <c r="B333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>170</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>170</v>
+      </c>
+      <c r="F333" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6">
+      <c r="B334" t="s">
+        <v>3</v>
+      </c>
+      <c r="C334">
+        <v>169</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1</v>
+      </c>
+      <c r="E334">
+        <v>169</v>
+      </c>
+      <c r="F334" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6">
+      <c r="B335" t="s">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>168</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>168</v>
+      </c>
+      <c r="F335" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="2:6">
+      <c r="B336" t="s">
+        <v>3</v>
+      </c>
+      <c r="C336">
+        <v>167</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>167</v>
+      </c>
+      <c r="F336" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6">
+      <c r="B337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>166</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>166</v>
+      </c>
+      <c r="F337" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6">
+      <c r="B338" t="s">
+        <v>3</v>
+      </c>
+      <c r="C338">
+        <v>165</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>165</v>
+      </c>
+      <c r="F338" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6">
+      <c r="B339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>164</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1</v>
+      </c>
+      <c r="E339">
+        <v>164</v>
+      </c>
+      <c r="F339" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6">
+      <c r="B340" t="s">
+        <v>3</v>
+      </c>
+      <c r="C340">
+        <v>163</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>163</v>
+      </c>
+      <c r="F340" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6">
+      <c r="B341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>162</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>162</v>
+      </c>
+      <c r="F341" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6">
+      <c r="B342" t="s">
+        <v>3</v>
+      </c>
+      <c r="C342">
+        <v>161</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1</v>
+      </c>
+      <c r="E342">
+        <v>161</v>
+      </c>
+      <c r="F342" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6">
+      <c r="B343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>160</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>160</v>
+      </c>
+      <c r="F343" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6">
+      <c r="B344" t="s">
+        <v>3</v>
+      </c>
+      <c r="C344">
+        <v>159</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1</v>
+      </c>
+      <c r="E344">
+        <v>159</v>
+      </c>
+      <c r="F344" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6">
+      <c r="B345" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>158</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>158</v>
+      </c>
+      <c r="F345" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6">
+      <c r="B346" t="s">
+        <v>3</v>
+      </c>
+      <c r="C346">
+        <v>157</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1</v>
+      </c>
+      <c r="E346">
+        <v>157</v>
+      </c>
+      <c r="F346" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6">
+      <c r="B347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>156</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1</v>
+      </c>
+      <c r="E347">
+        <v>156</v>
+      </c>
+      <c r="F347" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6">
+      <c r="B348" t="s">
+        <v>3</v>
+      </c>
+      <c r="C348">
+        <v>155</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1</v>
+      </c>
+      <c r="E348">
+        <v>155</v>
+      </c>
+      <c r="F348" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6">
+      <c r="B349" t="s">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>154</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>154</v>
+      </c>
+      <c r="F349" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6">
+      <c r="B350" t="s">
+        <v>3</v>
+      </c>
+      <c r="C350">
+        <v>153</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1</v>
+      </c>
+      <c r="E350">
+        <v>153</v>
+      </c>
+      <c r="F350" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6">
+      <c r="B351" t="s">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>152</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1</v>
+      </c>
+      <c r="E351">
+        <v>152</v>
+      </c>
+      <c r="F351" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6">
+      <c r="B352" t="s">
+        <v>3</v>
+      </c>
+      <c r="C352">
+        <v>151</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1</v>
+      </c>
+      <c r="E352">
+        <v>151</v>
+      </c>
+      <c r="F352" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6">
+      <c r="B353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>150</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1</v>
+      </c>
+      <c r="E353">
+        <v>150</v>
+      </c>
+      <c r="F353" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6">
+      <c r="B354" t="s">
+        <v>3</v>
+      </c>
+      <c r="C354">
+        <v>149</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1</v>
+      </c>
+      <c r="E354">
+        <v>149</v>
+      </c>
+      <c r="F354" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6">
+      <c r="B355" t="s">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>148</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1</v>
+      </c>
+      <c r="E355">
+        <v>148</v>
+      </c>
+      <c r="F355" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6">
+      <c r="B356" t="s">
+        <v>3</v>
+      </c>
+      <c r="C356">
+        <v>147</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1</v>
+      </c>
+      <c r="E356">
+        <v>147</v>
+      </c>
+      <c r="F356" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6">
+      <c r="B357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>146</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>146</v>
+      </c>
+      <c r="F357" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6">
+      <c r="B358" t="s">
+        <v>3</v>
+      </c>
+      <c r="C358">
+        <v>145</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1</v>
+      </c>
+      <c r="E358">
+        <v>145</v>
+      </c>
+      <c r="F358" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6">
+      <c r="B359" t="s">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>144</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1</v>
+      </c>
+      <c r="E359">
+        <v>144</v>
+      </c>
+      <c r="F359" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6">
+      <c r="B360" t="s">
+        <v>3</v>
+      </c>
+      <c r="C360">
+        <v>143</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1</v>
+      </c>
+      <c r="E360">
+        <v>143</v>
+      </c>
+      <c r="F360" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6">
+      <c r="B361" t="s">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>142</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>142</v>
+      </c>
+      <c r="F361" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6">
+      <c r="B362" t="s">
+        <v>3</v>
+      </c>
+      <c r="C362">
+        <v>141</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>141</v>
+      </c>
+      <c r="F362" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6">
+      <c r="B363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>140</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>140</v>
+      </c>
+      <c r="F363" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6">
+      <c r="B364" t="s">
+        <v>3</v>
+      </c>
+      <c r="C364">
+        <v>139</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1</v>
+      </c>
+      <c r="E364">
+        <v>139</v>
+      </c>
+      <c r="F364" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6">
+      <c r="B365" t="s">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>138</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1</v>
+      </c>
+      <c r="E365">
+        <v>138</v>
+      </c>
+      <c r="F365" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6">
+      <c r="B366" t="s">
+        <v>3</v>
+      </c>
+      <c r="C366">
+        <v>137</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1</v>
+      </c>
+      <c r="E366">
+        <v>137</v>
+      </c>
+      <c r="F366" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6">
+      <c r="B367" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>136</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1</v>
+      </c>
+      <c r="E367">
+        <v>136</v>
+      </c>
+      <c r="F367" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="2:6">
+      <c r="B368" t="s">
+        <v>3</v>
+      </c>
+      <c r="C368">
+        <v>135</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1</v>
+      </c>
+      <c r="E368">
+        <v>135</v>
+      </c>
+      <c r="F368" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6">
+      <c r="B369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>134</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1</v>
+      </c>
+      <c r="E369">
+        <v>134</v>
+      </c>
+      <c r="F369" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6">
+      <c r="B370" t="s">
+        <v>3</v>
+      </c>
+      <c r="C370">
+        <v>133</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>133</v>
+      </c>
+      <c r="F370" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6">
+      <c r="B371" t="s">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>132</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>132</v>
+      </c>
+      <c r="F371" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6">
+      <c r="B372" t="s">
+        <v>3</v>
+      </c>
+      <c r="C372">
+        <v>131</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>131</v>
+      </c>
+      <c r="F372" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6">
+      <c r="B373" t="s">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>130</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>130</v>
+      </c>
+      <c r="F373" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6">
+      <c r="B374" t="s">
+        <v>3</v>
+      </c>
+      <c r="C374">
+        <v>129</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>129</v>
+      </c>
+      <c r="F374" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6">
+      <c r="B375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>128</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>128</v>
+      </c>
+      <c r="F375" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6">
+      <c r="B376" t="s">
+        <v>3</v>
+      </c>
+      <c r="C376">
+        <v>127</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>127</v>
+      </c>
+      <c r="F376" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6">
+      <c r="B377" t="s">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>126</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <v>126</v>
+      </c>
+      <c r="F377" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="2:6">
+      <c r="B378" t="s">
+        <v>3</v>
+      </c>
+      <c r="C378">
+        <v>125</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>125</v>
+      </c>
+      <c r="F378" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="2:6">
+      <c r="B379" t="s">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>124</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>124</v>
+      </c>
+      <c r="F379" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="2:6">
+      <c r="B380" t="s">
+        <v>3</v>
+      </c>
+      <c r="C380">
+        <v>123</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1</v>
+      </c>
+      <c r="E380">
+        <v>123</v>
+      </c>
+      <c r="F380" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="2:6">
+      <c r="B381" t="s">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>122</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>122</v>
+      </c>
+      <c r="F381" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6">
+      <c r="B382" t="s">
+        <v>3</v>
+      </c>
+      <c r="C382">
+        <v>121</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1</v>
+      </c>
+      <c r="E382">
+        <v>121</v>
+      </c>
+      <c r="F382" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="2:6">
+      <c r="B383" t="s">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>120</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>120</v>
+      </c>
+      <c r="F383" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="2:6">
+      <c r="B384" t="s">
+        <v>3</v>
+      </c>
+      <c r="C384">
+        <v>119</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>119</v>
+      </c>
+      <c r="F384" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6">
+      <c r="B385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>118</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <v>118</v>
+      </c>
+      <c r="F385" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6">
+      <c r="B386" t="s">
+        <v>3</v>
+      </c>
+      <c r="C386">
+        <v>117</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>117</v>
+      </c>
+      <c r="F386" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="2:6">
+      <c r="B387" t="s">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>116</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>116</v>
+      </c>
+      <c r="F387" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="2:6">
+      <c r="B388" t="s">
+        <v>3</v>
+      </c>
+      <c r="C388">
+        <v>115</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>115</v>
+      </c>
+      <c r="F388" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="2:6">
+      <c r="B389" t="s">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>114</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>114</v>
+      </c>
+      <c r="F389" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="2:6">
+      <c r="B390" t="s">
+        <v>3</v>
+      </c>
+      <c r="C390">
+        <v>113</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1</v>
+      </c>
+      <c r="E390">
+        <v>113</v>
+      </c>
+      <c r="F390" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="2:6">
+      <c r="B391" t="s">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>112</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1</v>
+      </c>
+      <c r="E391">
+        <v>112</v>
+      </c>
+      <c r="F391" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="2:6">
+      <c r="B392" t="s">
+        <v>3</v>
+      </c>
+      <c r="C392">
+        <v>111</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>111</v>
+      </c>
+      <c r="F392" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="2:6">
+      <c r="B393" t="s">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>110</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <v>110</v>
+      </c>
+      <c r="F393" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="2:6">
+      <c r="B394" t="s">
+        <v>3</v>
+      </c>
+      <c r="C394">
+        <v>109</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>109</v>
+      </c>
+      <c r="F394" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="2:6">
+      <c r="B395" t="s">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>108</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>108</v>
+      </c>
+      <c r="F395" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="2:6">
+      <c r="B396" t="s">
+        <v>3</v>
+      </c>
+      <c r="C396">
+        <v>107</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1</v>
+      </c>
+      <c r="E396">
+        <v>107</v>
+      </c>
+      <c r="F396" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="2:6">
+      <c r="B397" t="s">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>106</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1</v>
+      </c>
+      <c r="E397">
+        <v>106</v>
+      </c>
+      <c r="F397" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="2:6">
+      <c r="B398" t="s">
+        <v>3</v>
+      </c>
+      <c r="C398">
+        <v>105</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>105</v>
+      </c>
+      <c r="F398" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="2:6">
+      <c r="B399" t="s">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>104</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1</v>
+      </c>
+      <c r="E399">
+        <v>104</v>
+      </c>
+      <c r="F399" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="2:6">
+      <c r="B400" t="s">
+        <v>3</v>
+      </c>
+      <c r="C400">
+        <v>103</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <v>103</v>
+      </c>
+      <c r="F400" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="2:6">
+      <c r="B401" t="s">
+        <v>0</v>
+      </c>
+      <c r="C401">
+        <v>102</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1</v>
+      </c>
+      <c r="E401">
+        <v>102</v>
+      </c>
+      <c r="F401" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="2:6">
+      <c r="B402" t="s">
+        <v>3</v>
+      </c>
+      <c r="C402">
+        <v>101</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1</v>
+      </c>
+      <c r="E402">
+        <v>101</v>
+      </c>
+      <c r="F402" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="2:6">
+      <c r="B403" t="s">
+        <v>0</v>
+      </c>
+      <c r="C403">
+        <v>100</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1</v>
+      </c>
+      <c r="E403">
+        <v>100</v>
+      </c>
+      <c r="F403" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="2:6">
+      <c r="B404" t="s">
+        <v>3</v>
+      </c>
+      <c r="C404">
+        <v>99</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1</v>
+      </c>
+      <c r="E404">
+        <v>99</v>
+      </c>
+      <c r="F404" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="2:6">
+      <c r="B405" t="s">
+        <v>0</v>
+      </c>
+      <c r="C405">
+        <v>98</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1</v>
+      </c>
+      <c r="E405">
+        <v>98</v>
+      </c>
+      <c r="F405" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="2:6">
+      <c r="B406" t="s">
+        <v>3</v>
+      </c>
+      <c r="C406">
+        <v>97</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1</v>
+      </c>
+      <c r="E406">
+        <v>97</v>
+      </c>
+      <c r="F406" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="2:6">
+      <c r="B407" t="s">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>96</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1</v>
+      </c>
+      <c r="E407">
+        <v>96</v>
+      </c>
+      <c r="F407" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="2:6">
+      <c r="B408" t="s">
+        <v>3</v>
+      </c>
+      <c r="C408">
+        <v>95</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1</v>
+      </c>
+      <c r="E408">
+        <v>95</v>
+      </c>
+      <c r="F408" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="2:6">
+      <c r="B409" t="s">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>94</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>94</v>
+      </c>
+      <c r="F409" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="2:6">
+      <c r="B410" t="s">
+        <v>3</v>
+      </c>
+      <c r="C410">
+        <v>93</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>93</v>
+      </c>
+      <c r="F410" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="2:6">
+      <c r="B411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C411">
+        <v>92</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>92</v>
+      </c>
+      <c r="F411" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="2:6">
+      <c r="B412" t="s">
+        <v>3</v>
+      </c>
+      <c r="C412">
+        <v>91</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>91</v>
+      </c>
+      <c r="F412" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="2:6">
+      <c r="B413" t="s">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <v>90</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1</v>
+      </c>
+      <c r="E413">
+        <v>90</v>
+      </c>
+      <c r="F413" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="2:6">
+      <c r="B414" t="s">
+        <v>3</v>
+      </c>
+      <c r="C414">
+        <v>89</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1</v>
+      </c>
+      <c r="E414">
+        <v>89</v>
+      </c>
+      <c r="F414" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="2:6">
+      <c r="B415" t="s">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>88</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1</v>
+      </c>
+      <c r="E415">
+        <v>88</v>
+      </c>
+      <c r="F415" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="2:6">
+      <c r="B416" t="s">
+        <v>3</v>
+      </c>
+      <c r="C416">
+        <v>87</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1</v>
+      </c>
+      <c r="E416">
+        <v>87</v>
+      </c>
+      <c r="F416" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="2:6">
+      <c r="B417" t="s">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>86</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1</v>
+      </c>
+      <c r="E417">
+        <v>86</v>
+      </c>
+      <c r="F417" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="2:6">
+      <c r="B418" t="s">
+        <v>3</v>
+      </c>
+      <c r="C418">
+        <v>85</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1</v>
+      </c>
+      <c r="E418">
+        <v>85</v>
+      </c>
+      <c r="F418" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="2:6">
+      <c r="B419" t="s">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>84</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1</v>
+      </c>
+      <c r="E419">
+        <v>84</v>
+      </c>
+      <c r="F419" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="2:6">
+      <c r="B420" t="s">
+        <v>3</v>
+      </c>
+      <c r="C420">
+        <v>83</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1</v>
+      </c>
+      <c r="E420">
+        <v>83</v>
+      </c>
+      <c r="F420" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="2:6">
+      <c r="B421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>82</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>82</v>
+      </c>
+      <c r="F421" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="2:6">
+      <c r="B422" t="s">
+        <v>3</v>
+      </c>
+      <c r="C422">
+        <v>81</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1</v>
+      </c>
+      <c r="E422">
+        <v>81</v>
+      </c>
+      <c r="F422" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="2:6">
+      <c r="B423" t="s">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>80</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1</v>
+      </c>
+      <c r="E423">
+        <v>80</v>
+      </c>
+      <c r="F423" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="2:6">
+      <c r="B424" t="s">
+        <v>3</v>
+      </c>
+      <c r="C424">
+        <v>79</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1</v>
+      </c>
+      <c r="E424">
+        <v>79</v>
+      </c>
+      <c r="F424" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="2:6">
+      <c r="B425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>78</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1</v>
+      </c>
+      <c r="E425">
+        <v>78</v>
+      </c>
+      <c r="F425" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="2:6">
+      <c r="B426" t="s">
+        <v>3</v>
+      </c>
+      <c r="C426">
+        <v>77</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1</v>
+      </c>
+      <c r="E426">
+        <v>77</v>
+      </c>
+      <c r="F426" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="2:6">
+      <c r="B427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>76</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1</v>
+      </c>
+      <c r="E427">
+        <v>76</v>
+      </c>
+      <c r="F427" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="2:6">
+      <c r="B428" t="s">
+        <v>3</v>
+      </c>
+      <c r="C428">
+        <v>75</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1</v>
+      </c>
+      <c r="E428">
+        <v>75</v>
+      </c>
+      <c r="F428" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="2:6">
+      <c r="B429" t="s">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>74</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1</v>
+      </c>
+      <c r="E429">
+        <v>74</v>
+      </c>
+      <c r="F429" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="2:6">
+      <c r="B430" t="s">
+        <v>3</v>
+      </c>
+      <c r="C430">
+        <v>73</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1</v>
+      </c>
+      <c r="E430">
+        <v>73</v>
+      </c>
+      <c r="F430" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="2:6">
+      <c r="B431" t="s">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>72</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1</v>
+      </c>
+      <c r="E431">
+        <v>72</v>
+      </c>
+      <c r="F431" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="2:6">
+      <c r="B432" t="s">
+        <v>3</v>
+      </c>
+      <c r="C432">
+        <v>71</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1</v>
+      </c>
+      <c r="E432">
+        <v>71</v>
+      </c>
+      <c r="F432" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="2:6">
+      <c r="B433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>70</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>70</v>
+      </c>
+      <c r="F433" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="2:6">
+      <c r="B434" t="s">
+        <v>3</v>
+      </c>
+      <c r="C434">
+        <v>69</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1</v>
+      </c>
+      <c r="E434">
+        <v>69</v>
+      </c>
+      <c r="F434" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="2:6">
+      <c r="B435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>68</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>68</v>
+      </c>
+      <c r="F435" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="2:6">
+      <c r="B436" t="s">
+        <v>3</v>
+      </c>
+      <c r="C436">
+        <v>67</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1</v>
+      </c>
+      <c r="E436">
+        <v>67</v>
+      </c>
+      <c r="F436" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="2:6">
+      <c r="B437" t="s">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>66</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1</v>
+      </c>
+      <c r="E437">
+        <v>66</v>
+      </c>
+      <c r="F437" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="2:6">
+      <c r="B438" t="s">
+        <v>3</v>
+      </c>
+      <c r="C438">
+        <v>65</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1</v>
+      </c>
+      <c r="E438">
+        <v>65</v>
+      </c>
+      <c r="F438" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="2:6">
+      <c r="B439" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>64</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1</v>
+      </c>
+      <c r="E439">
+        <v>64</v>
+      </c>
+      <c r="F439" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="2:6">
+      <c r="B440" t="s">
+        <v>3</v>
+      </c>
+      <c r="C440">
+        <v>63</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1</v>
+      </c>
+      <c r="E440">
+        <v>63</v>
+      </c>
+      <c r="F440" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="2:6">
+      <c r="B441" t="s">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>62</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1</v>
+      </c>
+      <c r="E441">
+        <v>62</v>
+      </c>
+      <c r="F441" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="2:6">
+      <c r="B442" t="s">
+        <v>3</v>
+      </c>
+      <c r="C442">
+        <v>61</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1</v>
+      </c>
+      <c r="E442">
+        <v>61</v>
+      </c>
+      <c r="F442" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="2:6">
+      <c r="B443" t="s">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>60</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1</v>
+      </c>
+      <c r="E443">
+        <v>60</v>
+      </c>
+      <c r="F443" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="2:6">
+      <c r="B444" t="s">
+        <v>3</v>
+      </c>
+      <c r="C444">
+        <v>59</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1</v>
+      </c>
+      <c r="E444">
+        <v>59</v>
+      </c>
+      <c r="F444" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="2:6">
+      <c r="B445" t="s">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>58</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1</v>
+      </c>
+      <c r="E445">
+        <v>58</v>
+      </c>
+      <c r="F445" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="2:6">
+      <c r="B446" t="s">
+        <v>3</v>
+      </c>
+      <c r="C446">
+        <v>57</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1</v>
+      </c>
+      <c r="E446">
+        <v>57</v>
+      </c>
+      <c r="F446" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="2:6">
+      <c r="B447" t="s">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>56</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1</v>
+      </c>
+      <c r="E447">
+        <v>56</v>
+      </c>
+      <c r="F447" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="2:6">
+      <c r="B448" t="s">
+        <v>3</v>
+      </c>
+      <c r="C448">
+        <v>55</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1</v>
+      </c>
+      <c r="E448">
+        <v>55</v>
+      </c>
+      <c r="F448" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="2:6">
+      <c r="B449" t="s">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>54</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1</v>
+      </c>
+      <c r="E449">
+        <v>54</v>
+      </c>
+      <c r="F449" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="2:6">
+      <c r="B450" t="s">
+        <v>3</v>
+      </c>
+      <c r="C450">
+        <v>53</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1</v>
+      </c>
+      <c r="E450">
+        <v>53</v>
+      </c>
+      <c r="F450" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="2:6">
+      <c r="B451" t="s">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>52</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1</v>
+      </c>
+      <c r="E451">
+        <v>52</v>
+      </c>
+      <c r="F451" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="2:6">
+      <c r="B452" t="s">
+        <v>3</v>
+      </c>
+      <c r="C452">
+        <v>51</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1</v>
+      </c>
+      <c r="E452">
+        <v>51</v>
+      </c>
+      <c r="F452" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="2:6">
+      <c r="B453" t="s">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>50</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1</v>
+      </c>
+      <c r="E453">
+        <v>50</v>
+      </c>
+      <c r="F453" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="2:6">
+      <c r="B454" t="s">
+        <v>3</v>
+      </c>
+      <c r="C454">
+        <v>49</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1</v>
+      </c>
+      <c r="E454">
+        <v>49</v>
+      </c>
+      <c r="F454" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="2:6">
+      <c r="B455" t="s">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>48</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1</v>
+      </c>
+      <c r="E455">
+        <v>48</v>
+      </c>
+      <c r="F455" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="2:6">
+      <c r="B456" t="s">
+        <v>3</v>
+      </c>
+      <c r="C456">
+        <v>47</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1</v>
+      </c>
+      <c r="E456">
+        <v>47</v>
+      </c>
+      <c r="F456" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="2:6">
+      <c r="B457" t="s">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>46</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>46</v>
+      </c>
+      <c r="F457" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="2:6">
+      <c r="B458" t="s">
+        <v>3</v>
+      </c>
+      <c r="C458">
+        <v>45</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1</v>
+      </c>
+      <c r="E458">
+        <v>45</v>
+      </c>
+      <c r="F458" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="2:6">
+      <c r="B459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>44</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1</v>
+      </c>
+      <c r="E459">
+        <v>44</v>
+      </c>
+      <c r="F459" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="2:6">
+      <c r="B460" t="s">
+        <v>3</v>
+      </c>
+      <c r="C460">
+        <v>43</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1</v>
+      </c>
+      <c r="E460">
+        <v>43</v>
+      </c>
+      <c r="F460" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="2:6">
+      <c r="B461" t="s">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>42</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1</v>
+      </c>
+      <c r="E461">
+        <v>42</v>
+      </c>
+      <c r="F461" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="2:6">
+      <c r="B462" t="s">
+        <v>3</v>
+      </c>
+      <c r="C462">
+        <v>41</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1</v>
+      </c>
+      <c r="E462">
+        <v>41</v>
+      </c>
+      <c r="F462" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="2:6">
+      <c r="B463" t="s">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>40</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1</v>
+      </c>
+      <c r="E463">
+        <v>40</v>
+      </c>
+      <c r="F463" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="2:6">
+      <c r="B464" t="s">
+        <v>3</v>
+      </c>
+      <c r="C464">
+        <v>39</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1</v>
+      </c>
+      <c r="E464">
+        <v>39</v>
+      </c>
+      <c r="F464" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="2:6">
+      <c r="B465" t="s">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>38</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1</v>
+      </c>
+      <c r="E465">
+        <v>38</v>
+      </c>
+      <c r="F465" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="2:6">
+      <c r="B466" t="s">
+        <v>3</v>
+      </c>
+      <c r="C466">
+        <v>37</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>37</v>
+      </c>
+      <c r="F466" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="2:6">
+      <c r="B467" t="s">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>36</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>36</v>
+      </c>
+      <c r="F467" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="2:6">
+      <c r="B468" t="s">
+        <v>3</v>
+      </c>
+      <c r="C468">
+        <v>35</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1</v>
+      </c>
+      <c r="E468">
+        <v>35</v>
+      </c>
+      <c r="F468" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="2:6">
+      <c r="B469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>34</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>34</v>
+      </c>
+      <c r="F469" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="2:6">
+      <c r="B470" t="s">
+        <v>3</v>
+      </c>
+      <c r="C470">
+        <v>33</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1</v>
+      </c>
+      <c r="E470">
+        <v>33</v>
+      </c>
+      <c r="F470" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="2:6">
+      <c r="B471" t="s">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>32</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1</v>
+      </c>
+      <c r="E471">
+        <v>32</v>
+      </c>
+      <c r="F471" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="2:6">
+      <c r="B472" t="s">
+        <v>3</v>
+      </c>
+      <c r="C472">
+        <v>31</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1</v>
+      </c>
+      <c r="E472">
+        <v>31</v>
+      </c>
+      <c r="F472" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="2:6">
+      <c r="B473" t="s">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>30</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1</v>
+      </c>
+      <c r="E473">
+        <v>30</v>
+      </c>
+      <c r="F473" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="2:6">
+      <c r="B474" t="s">
+        <v>3</v>
+      </c>
+      <c r="C474">
+        <v>29</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1</v>
+      </c>
+      <c r="E474">
+        <v>29</v>
+      </c>
+      <c r="F474" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475" spans="2:6">
+      <c r="B475" t="s">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>28</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1</v>
+      </c>
+      <c r="E475">
+        <v>28</v>
+      </c>
+      <c r="F475" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="2:6">
+      <c r="B476" t="s">
+        <v>3</v>
+      </c>
+      <c r="C476">
+        <v>27</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1</v>
+      </c>
+      <c r="E476">
+        <v>27</v>
+      </c>
+      <c r="F476" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="2:6">
+      <c r="B477" t="s">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>26</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1</v>
+      </c>
+      <c r="E477">
+        <v>26</v>
+      </c>
+      <c r="F477" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="2:6">
+      <c r="B478" t="s">
+        <v>3</v>
+      </c>
+      <c r="C478">
+        <v>25</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1</v>
+      </c>
+      <c r="E478">
+        <v>25</v>
+      </c>
+      <c r="F478" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="2:6">
+      <c r="B479" t="s">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>24</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1</v>
+      </c>
+      <c r="E479">
+        <v>24</v>
+      </c>
+      <c r="F479" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="2:6">
+      <c r="B480" t="s">
+        <v>3</v>
+      </c>
+      <c r="C480">
+        <v>23</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1</v>
+      </c>
+      <c r="E480">
+        <v>23</v>
+      </c>
+      <c r="F480" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="2:6">
+      <c r="B481" t="s">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>22</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1</v>
+      </c>
+      <c r="E481">
+        <v>22</v>
+      </c>
+      <c r="F481" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="2:6">
+      <c r="B482" t="s">
+        <v>3</v>
+      </c>
+      <c r="C482">
+        <v>21</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1</v>
+      </c>
+      <c r="E482">
+        <v>21</v>
+      </c>
+      <c r="F482" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="2:6">
+      <c r="B483" t="s">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>20</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1</v>
+      </c>
+      <c r="E483">
+        <v>20</v>
+      </c>
+      <c r="F483" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="2:6">
+      <c r="B484" t="s">
+        <v>3</v>
+      </c>
+      <c r="C484">
+        <v>19</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1</v>
+      </c>
+      <c r="E484">
+        <v>19</v>
+      </c>
+      <c r="F484" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="2:6">
+      <c r="B485" t="s">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>18</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1</v>
+      </c>
+      <c r="E485">
+        <v>18</v>
+      </c>
+      <c r="F485" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="2:6">
+      <c r="B486" t="s">
+        <v>3</v>
+      </c>
+      <c r="C486">
+        <v>17</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1</v>
+      </c>
+      <c r="E486">
+        <v>17</v>
+      </c>
+      <c r="F486" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="2:6">
+      <c r="B487" t="s">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>16</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>16</v>
+      </c>
+      <c r="F487" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="2:6">
+      <c r="B488" t="s">
+        <v>3</v>
+      </c>
+      <c r="C488">
+        <v>15</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1</v>
+      </c>
+      <c r="E488">
+        <v>15</v>
+      </c>
+      <c r="F488" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="2:6">
+      <c r="B489" t="s">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>14</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1</v>
+      </c>
+      <c r="E489">
+        <v>14</v>
+      </c>
+      <c r="F489" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="2:6">
+      <c r="B490" t="s">
+        <v>3</v>
+      </c>
+      <c r="C490">
+        <v>13</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1</v>
+      </c>
+      <c r="E490">
+        <v>13</v>
+      </c>
+      <c r="F490" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="2:6">
+      <c r="B491" t="s">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>12</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1</v>
+      </c>
+      <c r="E491">
+        <v>12</v>
+      </c>
+      <c r="F491" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="2:6">
+      <c r="B492" t="s">
+        <v>3</v>
+      </c>
+      <c r="C492">
+        <v>11</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1</v>
+      </c>
+      <c r="E492">
+        <v>11</v>
+      </c>
+      <c r="F492" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="2:6">
+      <c r="B493" t="s">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>10</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1</v>
+      </c>
+      <c r="E493">
+        <v>10</v>
+      </c>
+      <c r="F493" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="2:6">
+      <c r="B494" t="s">
+        <v>3</v>
+      </c>
+      <c r="C494">
+        <v>9</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1</v>
+      </c>
+      <c r="E494">
+        <v>9</v>
+      </c>
+      <c r="F494" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="2:6">
+      <c r="B495" t="s">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>8</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1</v>
+      </c>
+      <c r="E495">
+        <v>8</v>
+      </c>
+      <c r="F495" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="2:6">
+      <c r="B496" t="s">
+        <v>3</v>
+      </c>
+      <c r="C496">
+        <v>7</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1</v>
+      </c>
+      <c r="E496">
+        <v>7</v>
+      </c>
+      <c r="F496" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="2:6">
+      <c r="B497" t="s">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>6</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1</v>
+      </c>
+      <c r="E497">
+        <v>6</v>
+      </c>
+      <c r="F497" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="2:6">
+      <c r="B498" t="s">
+        <v>3</v>
+      </c>
+      <c r="C498">
+        <v>5</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1</v>
+      </c>
+      <c r="E498">
+        <v>5</v>
+      </c>
+      <c r="F498" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="2:6">
+      <c r="B499" t="s">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>4</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1</v>
+      </c>
+      <c r="E499">
+        <v>4</v>
+      </c>
+      <c r="F499" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="2:6">
+      <c r="B500" t="s">
+        <v>3</v>
+      </c>
+      <c r="C500">
+        <v>3</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1</v>
+      </c>
+      <c r="E500">
+        <v>3</v>
+      </c>
+      <c r="F500" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="2:6">
+      <c r="B501" t="s">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>2</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1</v>
+      </c>
+      <c r="E501">
+        <v>2</v>
+      </c>
+      <c r="F501" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="2:6">
+      <c r="B502" t="s">
+        <v>3</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+      <c r="F502" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="E4:E68">
+  <sortState ref="E3:E503">
     <sortCondition descending="1" ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
